--- a/CompactionAnalyzer/Analysis_output/Random1/Cell/results_angles.xlsx
+++ b/CompactionAnalyzer/Analysis_output/Random1/Cell/results_angles.xlsx
@@ -507,28 +507,28 @@
         <v>3.141592653589793</v>
       </c>
       <c r="D2" t="n">
-        <v>53.08637255063869</v>
+        <v>52.35780365162504</v>
       </c>
       <c r="E2" t="n">
-        <v>61.97734663323484</v>
+        <v>62.84284456015217</v>
       </c>
       <c r="F2" t="n">
-        <v>71.53952454203547</v>
+        <v>73.09387475517565</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2413491831554738</v>
+        <v>-0.2042780813064214</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.3277049211536303</v>
+        <v>-0.2275523009746723</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1774832452636116</v>
+        <v>-0.07035103290171464</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2154837252905499</v>
+        <v>0.2582471295365181</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1861245705885623</v>
+        <v>0.2216617319401967</v>
       </c>
       <c r="L2" t="n">
         <v>0.002253008703857067</v>
@@ -548,28 +548,28 @@
         <v>3.054326190990076</v>
       </c>
       <c r="D3" t="n">
-        <v>50.45596145232571</v>
+        <v>53.09421888785116</v>
       </c>
       <c r="E3" t="n">
-        <v>50.16393510685236</v>
+        <v>52.19542952872825</v>
       </c>
       <c r="F3" t="n">
-        <v>54.63561092360408</v>
+        <v>57.49829838579168</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1562543087681424</v>
+        <v>-0.232891314675107</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1181994361462011</v>
+        <v>-0.1106359620893086</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1212750945330897</v>
+        <v>-0.06712376890926737</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1804850985563454</v>
+        <v>0.2094488007046292</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1665046127104312</v>
+        <v>0.1912371250276702</v>
       </c>
       <c r="L3" t="n">
         <v>-0.0555859301127958</v>
@@ -589,28 +589,28 @@
         <v>2.96705972839036</v>
       </c>
       <c r="D4" t="n">
-        <v>39.22138976182514</v>
+        <v>38.84237389203182</v>
       </c>
       <c r="E4" t="n">
-        <v>39.63402972776434</v>
+        <v>39.32542904110444</v>
       </c>
       <c r="F4" t="n">
-        <v>48.71639496937872</v>
+        <v>48.17585962256767</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1808317584479571</v>
+        <v>0.1740173577632542</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1563325094065673</v>
+        <v>0.1572381755159113</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.02860731441505236</v>
+        <v>0.08154973904749507</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2008037051533047</v>
+        <v>0.2302391544568948</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1657239779447403</v>
+        <v>0.1897933616701695</v>
       </c>
       <c r="L4" t="n">
         <v>0.02144276328909449</v>
@@ -630,28 +630,28 @@
         <v>2.879793265790644</v>
       </c>
       <c r="D5" t="n">
-        <v>26.48989091695829</v>
+        <v>26.98576446442436</v>
       </c>
       <c r="E5" t="n">
-        <v>34.59845886026522</v>
+        <v>37.62385863475554</v>
       </c>
       <c r="F5" t="n">
-        <v>36.23404211677286</v>
+        <v>38.90823503816601</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5282323793503478</v>
+        <v>0.4922048288976282</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2874133409205201</v>
+        <v>0.2085538097184866</v>
       </c>
       <c r="I5" t="n">
-        <v>0.303418066204553</v>
+        <v>0.2696720958579041</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2258952374265128</v>
+        <v>0.2684024840051144</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2007678442411445</v>
+        <v>0.2406803973631527</v>
       </c>
       <c r="L5" t="n">
         <v>0.02739348361536218</v>
@@ -671,28 +671,28 @@
         <v>2.792526803190927</v>
       </c>
       <c r="D6" t="n">
-        <v>21.35089322583538</v>
+        <v>22.55563897705901</v>
       </c>
       <c r="E6" t="n">
-        <v>29.83547055680857</v>
+        <v>31.19997238111244</v>
       </c>
       <c r="F6" t="n">
-        <v>28.72917989664192</v>
+        <v>30.19038068959188</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6413297291407182</v>
+        <v>0.5914856607914319</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4102238002013922</v>
+        <v>0.3559633406068692</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4341398612654896</v>
+        <v>0.3804774071998518</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2334190149353021</v>
+        <v>0.3008578215780391</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2121980995547463</v>
+        <v>0.2670767085933947</v>
       </c>
       <c r="L6" t="n">
         <v>0.07111643980238098</v>
@@ -712,28 +712,28 @@
         <v>2.705260340591211</v>
       </c>
       <c r="D7" t="n">
-        <v>32.13961295847435</v>
+        <v>36.24735181348061</v>
       </c>
       <c r="E7" t="n">
-        <v>36.89228558267926</v>
+        <v>42.97936598395933</v>
       </c>
       <c r="F7" t="n">
-        <v>41.24256668016488</v>
+        <v>47.89768173684964</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3333930094329883</v>
+        <v>0.2262929875432459</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2712725238303089</v>
+        <v>0.14163308227817</v>
       </c>
       <c r="I7" t="n">
-        <v>0.243587542145187</v>
+        <v>0.1267314696583965</v>
       </c>
       <c r="J7" t="n">
-        <v>0.206761164023661</v>
+        <v>0.2546480391651499</v>
       </c>
       <c r="K7" t="n">
-        <v>0.187450416370102</v>
+        <v>0.2294293479894303</v>
       </c>
       <c r="L7" t="n">
         <v>-0.004038957647266103</v>
@@ -753,28 +753,28 @@
         <v>2.617993877991494</v>
       </c>
       <c r="D8" t="n">
-        <v>41.78537439623079</v>
+        <v>43.76014192221553</v>
       </c>
       <c r="E8" t="n">
-        <v>50.40607324875662</v>
+        <v>56.97907023813188</v>
       </c>
       <c r="F8" t="n">
-        <v>52.51777612888258</v>
+        <v>60.5568190207491</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07806147635531586</v>
+        <v>0.04773920986316742</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002055596857353373</v>
+        <v>0.1333282862024321</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1487555878828506</v>
+        <v>0.2154817830813943</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2057244050150127</v>
+        <v>0.2480615774478012</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2055611056067944</v>
+        <v>0.2437781619861016</v>
       </c>
       <c r="L8" t="n">
         <v>-0.0118961436902843</v>
@@ -794,28 +794,28 @@
         <v>2.530727415391778</v>
       </c>
       <c r="D9" t="n">
-        <v>32.83958472940675</v>
+        <v>32.16355617707332</v>
       </c>
       <c r="E9" t="n">
-        <v>33.36234540930743</v>
+        <v>30.91110668591634</v>
       </c>
       <c r="F9" t="n">
-        <v>30.66617685989319</v>
+        <v>29.0204737753092</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3047266663053909</v>
+        <v>0.3208559507204629</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4539549507731044</v>
+        <v>0.5257456108787502</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5431288074516172</v>
+        <v>0.6104874905910416</v>
       </c>
       <c r="J9" t="n">
-        <v>0.157770721020651</v>
+        <v>0.1709102665090436</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1740958233304193</v>
+        <v>0.18800312210197</v>
       </c>
       <c r="L9" t="n">
         <v>0.03262642686942311</v>
@@ -835,28 +835,28 @@
         <v>2.443460952792061</v>
       </c>
       <c r="D10" t="n">
-        <v>32.45483896797364</v>
+        <v>34.97070259386956</v>
       </c>
       <c r="E10" t="n">
-        <v>24.57013025197104</v>
+        <v>27.17590346577845</v>
       </c>
       <c r="F10" t="n">
-        <v>24.22693681493694</v>
+        <v>26.60992546323893</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2777279445881087</v>
+        <v>0.2257454167827421</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5529132496001353</v>
+        <v>0.5204355278757247</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5936044786539186</v>
+        <v>0.5883535937914973</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1460733708130681</v>
+        <v>0.180894818861732</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1505188862195061</v>
+        <v>0.18705222117121</v>
       </c>
       <c r="L10" t="n">
         <v>0.03027328860305662</v>
@@ -876,28 +876,28 @@
         <v>2.356194490192345</v>
       </c>
       <c r="D11" t="n">
-        <v>42.66793848231396</v>
+        <v>42.51024723979127</v>
       </c>
       <c r="E11" t="n">
-        <v>30.21926787167505</v>
+        <v>29.91611988956188</v>
       </c>
       <c r="F11" t="n">
-        <v>23.74231002200274</v>
+        <v>23.40612199929529</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.006944487141852438</v>
+        <v>0.01520945951948413</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4007641718706208</v>
+        <v>0.4296328434638083</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5767597954506379</v>
+        <v>0.5744954783472253</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1374140956919865</v>
+        <v>0.157458834154317</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1516318242991473</v>
+        <v>0.174511215530561</v>
       </c>
       <c r="L11" t="n">
         <v>0.01613412261901345</v>
@@ -917,28 +917,28 @@
         <v>2.268928027592628</v>
       </c>
       <c r="D12" t="n">
-        <v>37.51523077404202</v>
+        <v>41.5677848364352</v>
       </c>
       <c r="E12" t="n">
-        <v>33.66733849633133</v>
+        <v>40.75557801994149</v>
       </c>
       <c r="F12" t="n">
-        <v>32.56739242717802</v>
+        <v>39.14411155534067</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1778591461573183</v>
+        <v>0.08085470717114716</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3510522559905785</v>
+        <v>0.274537327530518</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3870513982259404</v>
+        <v>0.313700486859837</v>
       </c>
       <c r="J12" t="n">
-        <v>0.168627689487048</v>
+        <v>0.1993873454346737</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1638976774028721</v>
+        <v>0.1961055787165665</v>
       </c>
       <c r="L12" t="n">
         <v>-0.002091832505563038</v>
@@ -958,28 +958,28 @@
         <v>2.181661564992912</v>
       </c>
       <c r="D13" t="n">
-        <v>17.25333398049862</v>
+        <v>24.78651738699933</v>
       </c>
       <c r="E13" t="n">
-        <v>13.07851852337163</v>
+        <v>19.22845691569695</v>
       </c>
       <c r="F13" t="n">
-        <v>17.17965806966936</v>
+        <v>23.70166592025324</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7430593648753885</v>
+        <v>0.55447599548237</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8455235728242534</v>
+        <v>0.7135100582226934</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7430077556724307</v>
+        <v>0.5860798258979266</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1938999035616841</v>
+        <v>0.2357994170526811</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1415052308914608</v>
+        <v>0.1714842703694817</v>
       </c>
       <c r="L13" t="n">
         <v>0.06282959670692298</v>
@@ -999,28 +999,28 @@
         <v>2.094395102393195</v>
       </c>
       <c r="D14" t="n">
-        <v>16.65723152190262</v>
+        <v>26.25865548700753</v>
       </c>
       <c r="E14" t="n">
-        <v>14.31387277152686</v>
+        <v>18.13236988224894</v>
       </c>
       <c r="F14" t="n">
-        <v>20.12812544989378</v>
+        <v>24.28454438967338</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7983246384648461</v>
+        <v>0.5451959145813086</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8347084550417767</v>
+        <v>0.7498786512689798</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6565445606852913</v>
+        <v>0.561090914067099</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1896333715145848</v>
+        <v>0.2183879176252957</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1377024591889323</v>
+        <v>0.1525105686964627</v>
       </c>
       <c r="L14" t="n">
         <v>0.03963896925728847</v>
@@ -1040,28 +1040,28 @@
         <v>2.007128639793479</v>
       </c>
       <c r="D15" t="n">
-        <v>31.53360309544939</v>
+        <v>40.28109285473278</v>
       </c>
       <c r="E15" t="n">
-        <v>23.70422629573457</v>
+        <v>26.98021018884575</v>
       </c>
       <c r="F15" t="n">
-        <v>24.99309988138178</v>
+        <v>28.78125043283912</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3948615990926166</v>
+        <v>0.1212587381815116</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6062983380995089</v>
+        <v>0.5047061002428214</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5653156998140834</v>
+        <v>0.5188537504745036</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1172010529638321</v>
+        <v>0.1270932479462399</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1208802313886251</v>
+        <v>0.1272807837888877</v>
       </c>
       <c r="L15" t="n">
         <v>-0.05092708743862892</v>
@@ -1081,28 +1081,28 @@
         <v>1.919862177193763</v>
       </c>
       <c r="D16" t="n">
-        <v>39.04008517516821</v>
+        <v>35.27950543154306</v>
       </c>
       <c r="E16" t="n">
-        <v>28.21135216744516</v>
+        <v>28.45598543960519</v>
       </c>
       <c r="F16" t="n">
-        <v>33.92567268982602</v>
+        <v>36.09565490147092</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1704523383865065</v>
+        <v>0.2879175544538899</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4771667463998971</v>
+        <v>0.4482821072957566</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4614488524593762</v>
+        <v>0.532236202072414</v>
       </c>
       <c r="J16" t="n">
-        <v>0.136177601385353</v>
+        <v>0.1662114804235678</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1278848764654376</v>
+        <v>0.1505563763341377</v>
       </c>
       <c r="L16" t="n">
         <v>0.0104705310583308</v>
@@ -1122,28 +1122,28 @@
         <v>1.832595714594046</v>
       </c>
       <c r="D17" t="n">
-        <v>30.72867402953861</v>
+        <v>27.44496065786272</v>
       </c>
       <c r="E17" t="n">
-        <v>22.36298937867308</v>
+        <v>27.12955654195565</v>
       </c>
       <c r="F17" t="n">
-        <v>23.85997690124304</v>
+        <v>27.83734490634545</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3910468740750608</v>
+        <v>0.4914326508937623</v>
       </c>
       <c r="H17" t="n">
-        <v>0.639862158334418</v>
+        <v>0.4759049760359946</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5829779009226033</v>
+        <v>0.4648942147995856</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1436737590028094</v>
+        <v>0.1867701671066738</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1395487420608355</v>
+        <v>0.1886714814227972</v>
       </c>
       <c r="L17" t="n">
         <v>0.03587549567710583</v>
@@ -1163,28 +1163,28 @@
         <v>1.74532925199433</v>
       </c>
       <c r="D18" t="n">
-        <v>19.5811847637468</v>
+        <v>19.04709469644575</v>
       </c>
       <c r="E18" t="n">
-        <v>17.75475327090572</v>
+        <v>16.93859236744864</v>
       </c>
       <c r="F18" t="n">
-        <v>16.08852049691027</v>
+        <v>15.87414441431344</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6952617007108663</v>
+        <v>0.7205121986273936</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7644260126568132</v>
+        <v>0.771229246335393</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7705879168351382</v>
+        <v>0.7975804751336081</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1593989283380719</v>
+        <v>0.1858288545288207</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1628804005710248</v>
+        <v>0.1923870442297757</v>
       </c>
       <c r="L18" t="n">
         <v>0.03293770762022794</v>
@@ -1204,28 +1204,28 @@
         <v>1.658062789394613</v>
       </c>
       <c r="D19" t="n">
-        <v>18.05622621505892</v>
+        <v>19.12672388739511</v>
       </c>
       <c r="E19" t="n">
-        <v>16.79040653791005</v>
+        <v>15.97275210381059</v>
       </c>
       <c r="F19" t="n">
-        <v>16.61156648173625</v>
+        <v>15.65784622570759</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7485427389399105</v>
+        <v>0.7198875374753554</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7884599848662256</v>
+        <v>0.8224846087441026</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7819670839747771</v>
+        <v>0.822412581553814</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1767331956413552</v>
+        <v>0.20133842126043</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1790301042566858</v>
+        <v>0.2045162738002392</v>
       </c>
       <c r="L19" t="n">
         <v>0.06265065842344665</v>
@@ -1245,28 +1245,28 @@
         <v>1.570796326794897</v>
       </c>
       <c r="D20" t="n">
-        <v>21.70290071675776</v>
+        <v>22.19546843698676</v>
       </c>
       <c r="E20" t="n">
-        <v>20.21443488754139</v>
+        <v>18.49617280696473</v>
       </c>
       <c r="F20" t="n">
-        <v>19.8111797530191</v>
+        <v>18.25065164577391</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6726401487915695</v>
+        <v>0.6414145869797413</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7126370905661286</v>
+        <v>0.7515609842611592</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7149525341299097</v>
+        <v>0.7474712969274647</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1681704982361401</v>
+        <v>0.1953395123632215</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1710830381652771</v>
+        <v>0.1984010367705301</v>
       </c>
       <c r="L20" t="n">
         <v>0.03175883998122363</v>
@@ -1286,28 +1286,28 @@
         <v>1.48352986419518</v>
       </c>
       <c r="D21" t="n">
-        <v>37.31472876126254</v>
+        <v>38.62615851615016</v>
       </c>
       <c r="E21" t="n">
-        <v>33.90403672013478</v>
+        <v>34.23676759368867</v>
       </c>
       <c r="F21" t="n">
-        <v>28.2277414108031</v>
+        <v>29.74684445794456</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2588930666899855</v>
+        <v>0.1945107247597622</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3381365006947113</v>
+        <v>0.306803537734165</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4936072522688137</v>
+        <v>0.4303237799941367</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1331337452886016</v>
+        <v>0.1559270057698777</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1609704856106274</v>
+        <v>0.1843563065307566</v>
       </c>
       <c r="L21" t="n">
         <v>0.02113881086185676</v>
@@ -1327,28 +1327,28 @@
         <v>1.396263401595464</v>
       </c>
       <c r="D22" t="n">
-        <v>48.45189168957066</v>
+        <v>50.07313461512639</v>
       </c>
       <c r="E22" t="n">
-        <v>47.31051002531301</v>
+        <v>49.0659392139784</v>
       </c>
       <c r="F22" t="n">
-        <v>42.59537820416706</v>
+        <v>46.5513993288808</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.07911647581108137</v>
+        <v>-0.1359698050927856</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.01656068096510385</v>
+        <v>-0.04353913825405972</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1630594510769076</v>
+        <v>0.1208920727457607</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1521030646680549</v>
+        <v>0.1830673846098275</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1649664966597718</v>
+        <v>0.1888836611963242</v>
       </c>
       <c r="L22" t="n">
         <v>-0.02342967595501652</v>
@@ -1368,28 +1368,28 @@
         <v>1.308996938995747</v>
       </c>
       <c r="D23" t="n">
-        <v>50.63114318246458</v>
+        <v>48.02398857068582</v>
       </c>
       <c r="E23" t="n">
-        <v>49.96522014535896</v>
+        <v>47.66871566195835</v>
       </c>
       <c r="F23" t="n">
-        <v>47.1680804363432</v>
+        <v>45.01301933980296</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1243476711819387</v>
+        <v>-0.04268940638249049</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.01321001737388841</v>
+        <v>0.08406126480597062</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1875129120591948</v>
+        <v>0.2930972118807671</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1687398357519125</v>
+        <v>0.2033433524899547</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1647578589838611</v>
+        <v>0.1962380268595633</v>
       </c>
       <c r="L23" t="n">
         <v>0.02695251088263858</v>
@@ -1409,28 +1409,28 @@
         <v>1.221730476396031</v>
       </c>
       <c r="D24" t="n">
-        <v>54.8242113981462</v>
+        <v>53.10144777763632</v>
       </c>
       <c r="E24" t="n">
-        <v>48.80345089320606</v>
+        <v>45.96702148618841</v>
       </c>
       <c r="F24" t="n">
-        <v>43.92363969458071</v>
+        <v>41.00513455078298</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2474920268061741</v>
+        <v>-0.2165619373295434</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02378284098535383</v>
+        <v>0.1464986141318642</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2234244909602097</v>
+        <v>0.3068782558372218</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1270704310160127</v>
+        <v>0.1419392858414476</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1418072540954748</v>
+        <v>0.1592199725360865</v>
       </c>
       <c r="L24" t="n">
         <v>-0.01242640119572635</v>
@@ -1450,28 +1450,28 @@
         <v>1.134464013796314</v>
       </c>
       <c r="D25" t="n">
-        <v>50.52550268549599</v>
+        <v>49.6218346656114</v>
       </c>
       <c r="E25" t="n">
-        <v>45.76925129836846</v>
+        <v>45.525174590941</v>
       </c>
       <c r="F25" t="n">
-        <v>45.62497177106178</v>
+        <v>44.49800165049262</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1384296440123764</v>
+        <v>-0.1428014036929633</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02865634409002742</v>
+        <v>0.05928577190348404</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.02376609872368062</v>
+        <v>0.02431102899650897</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1423153880415719</v>
+        <v>0.161537431021094</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1377524217669301</v>
+        <v>0.1609863368774503</v>
       </c>
       <c r="L25" t="n">
         <v>-0.01466414647751074</v>
@@ -1491,28 +1491,28 @@
         <v>1.047197551196598</v>
       </c>
       <c r="D26" t="n">
-        <v>44.26825251751422</v>
+        <v>42.89997026812394</v>
       </c>
       <c r="E26" t="n">
-        <v>44.06802700301297</v>
+        <v>43.4828076611681</v>
       </c>
       <c r="F26" t="n">
-        <v>55.43861730396208</v>
+        <v>53.78860238125668</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05654659118456771</v>
+        <v>0.08191105985089586</v>
       </c>
       <c r="H26" t="n">
-        <v>0.04177283979555715</v>
+        <v>0.09182567492274041</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1048195449014058</v>
+        <v>-0.04245011745763298</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2229455721982837</v>
+        <v>0.2662413956631186</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1627438060480847</v>
+        <v>0.2007147781086286</v>
       </c>
       <c r="L26" t="n">
         <v>0.01165352241663356</v>
@@ -1532,28 +1532,28 @@
         <v>0.9599310885968813</v>
       </c>
       <c r="D27" t="n">
-        <v>46.18696926118439</v>
+        <v>43.37445151236942</v>
       </c>
       <c r="E27" t="n">
-        <v>44.27107956223289</v>
+        <v>42.12933496808474</v>
       </c>
       <c r="F27" t="n">
-        <v>49.191450243089</v>
+        <v>45.37649498518775</v>
       </c>
       <c r="G27" t="n">
-        <v>0.003128500704150057</v>
+        <v>0.0617770242889076</v>
       </c>
       <c r="H27" t="n">
-        <v>0.07386909217413534</v>
+        <v>0.1664235112783319</v>
       </c>
       <c r="I27" t="n">
-        <v>0.065396898358046</v>
+        <v>0.1019918106009477</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1853281801531174</v>
+        <v>0.2114853334904549</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1570544772025099</v>
+        <v>0.1847079025303414</v>
       </c>
       <c r="L27" t="n">
         <v>-0.007707863495702352</v>
@@ -1573,28 +1573,28 @@
         <v>0.8726646259971648</v>
       </c>
       <c r="D28" t="n">
-        <v>60.36881337473586</v>
+        <v>61.62248916068694</v>
       </c>
       <c r="E28" t="n">
-        <v>46.81343383629913</v>
+        <v>49.45558640676253</v>
       </c>
       <c r="F28" t="n">
-        <v>41.51291586794304</v>
+        <v>44.75497897632105</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.4449452481734072</v>
+        <v>-0.4652756148318062</v>
       </c>
       <c r="H28" t="n">
-        <v>0.05211235531170976</v>
+        <v>0.03836936999313784</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1934164578745552</v>
+        <v>0.1527213386031878</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1143734043301205</v>
+        <v>0.1433160176498387</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1278345042581035</v>
+        <v>0.1567726255556912</v>
       </c>
       <c r="L28" t="n">
         <v>-0.01667050347144674</v>
@@ -1614,28 +1614,28 @@
         <v>0.7853981633974483</v>
       </c>
       <c r="D29" t="n">
-        <v>63.65491052415223</v>
+        <v>59.27871770017977</v>
       </c>
       <c r="E29" t="n">
-        <v>62.16601265162124</v>
+        <v>61.06195588890797</v>
       </c>
       <c r="F29" t="n">
-        <v>66.04202913919652</v>
+        <v>66.96316680008373</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.4972621661570129</v>
+        <v>-0.3856101470666575</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.04196089193192457</v>
+        <v>0.09885293077083492</v>
       </c>
       <c r="I29" t="n">
-        <v>0.007230688697546415</v>
+        <v>0.1126559136558969</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1564501860212567</v>
+        <v>0.1983226861947994</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1466380134039784</v>
+        <v>0.1824624123670259</v>
       </c>
       <c r="L29" t="n">
         <v>-0.02761384728114499</v>
@@ -1655,28 +1655,28 @@
         <v>0.6981317007977318</v>
       </c>
       <c r="D30" t="n">
-        <v>59.25299766234841</v>
+        <v>56.71971835172071</v>
       </c>
       <c r="E30" t="n">
-        <v>69.57375498869771</v>
+        <v>67.09157391401354</v>
       </c>
       <c r="F30" t="n">
-        <v>79.16705566753849</v>
+        <v>78.96050763855065</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.3938980176335335</v>
+        <v>-0.3162045532704739</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04271310699420542</v>
+        <v>0.01962158620988727</v>
       </c>
       <c r="I30" t="n">
-        <v>0.006589994408215324</v>
+        <v>-0.03084968917107782</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2044370097968928</v>
+        <v>0.2533182666551849</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1761586634089662</v>
+        <v>0.2129733789309828</v>
       </c>
       <c r="L30" t="n">
         <v>-0.01598430796427214</v>
@@ -1696,28 +1696,28 @@
         <v>0.6108652381980153</v>
       </c>
       <c r="D31" t="n">
-        <v>56.0416328698679</v>
+        <v>53.01222049309969</v>
       </c>
       <c r="E31" t="n">
-        <v>71.19219064675507</v>
+        <v>69.76174967356221</v>
       </c>
       <c r="F31" t="n">
-        <v>91.07343299285357</v>
+        <v>88.09047468602184</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.3349611019714269</v>
+        <v>-0.2399925100315396</v>
       </c>
       <c r="H31" t="n">
-        <v>0.044912330800281</v>
+        <v>-0.04070227556844846</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2069116336534692</v>
+        <v>0.145711289805102</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2407773912555192</v>
+        <v>0.2900758626552476</v>
       </c>
       <c r="K31" t="n">
-        <v>0.1933361174601523</v>
+        <v>0.2381715572001223</v>
       </c>
       <c r="L31" t="n">
         <v>-0.01788093183955984</v>
@@ -1737,28 +1737,28 @@
         <v>0.5235987755982988</v>
       </c>
       <c r="D32" t="n">
-        <v>56.16790494463731</v>
+        <v>53.1334188016281</v>
       </c>
       <c r="E32" t="n">
-        <v>63.01831099707796</v>
+        <v>65.6487310811398</v>
       </c>
       <c r="F32" t="n">
-        <v>73.14073022596496</v>
+        <v>77.06121572657094</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.3255383046664763</v>
+        <v>-0.2254913892524806</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.08434992311345166</v>
+        <v>0.05055395192523905</v>
       </c>
       <c r="I32" t="n">
-        <v>0.344238595814259</v>
+        <v>0.3664949074943072</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1850446586644018</v>
+        <v>0.2303679394070393</v>
       </c>
       <c r="K32" t="n">
-        <v>0.1633150438497093</v>
+        <v>0.207225688419672</v>
       </c>
       <c r="L32" t="n">
         <v>-0.03162906179058161</v>
@@ -1778,28 +1778,28 @@
         <v>0.4363323129985824</v>
       </c>
       <c r="D33" t="n">
-        <v>51.39766234519056</v>
+        <v>44.9681215258839</v>
       </c>
       <c r="E33" t="n">
-        <v>41.74648269983609</v>
+        <v>37.38187090581658</v>
       </c>
       <c r="F33" t="n">
-        <v>37.34137378876433</v>
+        <v>33.46748018434472</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.176100128740554</v>
+        <v>0.0001749516859764286</v>
       </c>
       <c r="H33" t="n">
-        <v>0.08261268388921783</v>
+        <v>0.285766927322625</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2560575252141201</v>
+        <v>0.407713518592328</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1099592951959956</v>
+        <v>0.1313034901725288</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1219659038345466</v>
+        <v>0.1514830394844147</v>
       </c>
       <c r="L33" t="n">
         <v>0.016016149727494</v>
@@ -1819,28 +1819,28 @@
         <v>0.3490658503988659</v>
       </c>
       <c r="D34" t="n">
-        <v>44.25052430888138</v>
+        <v>44.2207176944469</v>
       </c>
       <c r="E34" t="n">
-        <v>35.24899594532021</v>
+        <v>32.80347762282796</v>
       </c>
       <c r="F34" t="n">
-        <v>31.30195656627707</v>
+        <v>28.51280411371443</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03392449690336515</v>
+        <v>0.04500017966162472</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2430164647547735</v>
+        <v>0.3235125701649724</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3542833273921237</v>
+        <v>0.4395307868076172</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1106317452559296</v>
+        <v>0.1251216803514635</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1246852232581397</v>
+        <v>0.1461515853522946</v>
       </c>
       <c r="L34" t="n">
         <v>0.0160683723145994</v>
@@ -1860,28 +1860,28 @@
         <v>0.2617993877991494</v>
       </c>
       <c r="D35" t="n">
-        <v>43.92198648612349</v>
+        <v>45.27283103936621</v>
       </c>
       <c r="E35" t="n">
-        <v>36.07753152237471</v>
+        <v>39.67320691108844</v>
       </c>
       <c r="F35" t="n">
-        <v>37.63784468886157</v>
+        <v>41.49135652167634</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04291614568796683</v>
+        <v>0.009884814591177632</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2172824197941683</v>
+        <v>0.108393171870955</v>
       </c>
       <c r="I35" t="n">
-        <v>0.2507873093548113</v>
+        <v>0.2039809688134414</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1378944926900326</v>
+        <v>0.1739474780319519</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1318758653583174</v>
+        <v>0.1667737957483477</v>
       </c>
       <c r="L35" t="n">
         <v>-0.01116409398538035</v>
@@ -1901,28 +1901,28 @@
         <v>0.1745329251994329</v>
       </c>
       <c r="D36" t="n">
-        <v>34.96058369022312</v>
+        <v>37.83879096501511</v>
       </c>
       <c r="E36" t="n">
-        <v>28.55907786477938</v>
+        <v>32.99417735739061</v>
       </c>
       <c r="F36" t="n">
-        <v>31.49519754767707</v>
+        <v>36.37552500335059</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2971288754002959</v>
+        <v>0.2192610553470222</v>
       </c>
       <c r="H36" t="n">
-        <v>0.4388190341989276</v>
+        <v>0.3165486157040784</v>
       </c>
       <c r="I36" t="n">
-        <v>0.379135336090667</v>
+        <v>0.2820163747840752</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1360586222757516</v>
+        <v>0.1745023412911522</v>
       </c>
       <c r="K36" t="n">
-        <v>0.1250963938720044</v>
+        <v>0.1619381719093377</v>
       </c>
       <c r="L36" t="n">
         <v>0.01899979286328432</v>
@@ -1942,28 +1942,28 @@
         <v>0.08726646259971647</v>
       </c>
       <c r="D37" t="n">
-        <v>26.39809480845896</v>
+        <v>31.76261129790035</v>
       </c>
       <c r="E37" t="n">
-        <v>21.20048640308569</v>
+        <v>26.32786140783833</v>
       </c>
       <c r="F37" t="n">
-        <v>19.61516743675246</v>
+        <v>26.35374040307007</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5520737371194195</v>
+        <v>0.3904531527585787</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6683459627620371</v>
+        <v>0.531538871486394</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7341079309333586</v>
+        <v>0.5420057845472899</v>
       </c>
       <c r="J37" t="n">
-        <v>0.139035603617436</v>
+        <v>0.1788831469073354</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1354724633817</v>
+        <v>0.1745640372913249</v>
       </c>
       <c r="L37" t="n">
         <v>0.007027358259527582</v>
@@ -1983,28 +1983,28 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>27.74266569182851</v>
+        <v>26.93814386737271</v>
       </c>
       <c r="E38" t="n">
-        <v>20.13855422845493</v>
+        <v>26.72470237683564</v>
       </c>
       <c r="F38" t="n">
-        <v>23.21473627228626</v>
+        <v>32.92949623897994</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4630305117302563</v>
+        <v>0.4533839264270066</v>
       </c>
       <c r="H38" t="n">
-        <v>0.6997592584059927</v>
+        <v>0.4792893235456891</v>
       </c>
       <c r="I38" t="n">
-        <v>0.6062608032486329</v>
+        <v>0.4404786993326086</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1888796754641329</v>
+        <v>0.2727296409971939</v>
       </c>
       <c r="K38" t="n">
-        <v>0.1598681366639527</v>
+        <v>0.2252726018834092</v>
       </c>
       <c r="L38" t="n">
         <v>0.04621121088518452</v>
@@ -2024,28 +2024,28 @@
         <v>6.19591884457987</v>
       </c>
       <c r="D39" t="n">
-        <v>31.05249995916316</v>
+        <v>31.58626383468876</v>
       </c>
       <c r="E39" t="n">
-        <v>21.18966911128296</v>
+        <v>23.68002846270127</v>
       </c>
       <c r="F39" t="n">
-        <v>21.27502995863911</v>
+        <v>24.90817250328015</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3799509833831484</v>
+        <v>0.3510235291010662</v>
       </c>
       <c r="H39" t="n">
-        <v>0.6571655166207698</v>
+        <v>0.5575170886112898</v>
       </c>
       <c r="I39" t="n">
-        <v>0.6261829784831279</v>
+        <v>0.5340954682211126</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1189357660941475</v>
+        <v>0.1477273271198084</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1332010888414874</v>
+        <v>0.1575747089100841</v>
       </c>
       <c r="L39" t="n">
         <v>0.002677106765261216</v>
@@ -2065,28 +2065,28 @@
         <v>6.108652381980153</v>
       </c>
       <c r="D40" t="n">
-        <v>34.15074727124605</v>
+        <v>33.60036603232189</v>
       </c>
       <c r="E40" t="n">
-        <v>43.22096090509945</v>
+        <v>41.16300445431553</v>
       </c>
       <c r="F40" t="n">
-        <v>41.92850336344532</v>
+        <v>40.93413125028972</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3204094913482687</v>
+        <v>0.3181995660872767</v>
       </c>
       <c r="H40" t="n">
-        <v>0.08398085763207823</v>
+        <v>0.1903096263658195</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2170856339556598</v>
+        <v>0.3120954129041296</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1830294313579105</v>
+        <v>0.2033182333741017</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1961945637564834</v>
+        <v>0.2129263114139865</v>
       </c>
       <c r="L40" t="n">
         <v>0.003716876915324378</v>
@@ -2106,28 +2106,28 @@
         <v>6.021385919380437</v>
       </c>
       <c r="D41" t="n">
-        <v>28.54921165997763</v>
+        <v>28.28383672237217</v>
       </c>
       <c r="E41" t="n">
-        <v>47.51912019835272</v>
+        <v>44.65747076207307</v>
       </c>
       <c r="F41" t="n">
-        <v>56.77759489433777</v>
+        <v>53.72557941331959</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4871472609543693</v>
+        <v>0.5013408224973049</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.1198107242308684</v>
+        <v>-0.002948354051955382</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.2468407637632862</v>
+        <v>-0.126127028131939</v>
       </c>
       <c r="J41" t="n">
-        <v>0.3062698698880374</v>
+        <v>0.3444998680519716</v>
       </c>
       <c r="K41" t="n">
-        <v>0.2609465163293257</v>
+        <v>0.2900368748005373</v>
       </c>
       <c r="L41" t="n">
         <v>0.03804832042131542</v>
@@ -2147,28 +2147,28 @@
         <v>5.934119456780721</v>
       </c>
       <c r="D42" t="n">
-        <v>20.23965475890407</v>
+        <v>21.4971950824008</v>
       </c>
       <c r="E42" t="n">
-        <v>32.08114041210955</v>
+        <v>31.19307122386967</v>
       </c>
       <c r="F42" t="n">
-        <v>41.39187112519483</v>
+        <v>40.33306300073179</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6892452433782382</v>
+        <v>0.6585267127534959</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3191395554280038</v>
+        <v>0.3461620355310079</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1281855050193711</v>
+        <v>0.1652528176413683</v>
       </c>
       <c r="J42" t="n">
-        <v>0.332113053825402</v>
+        <v>0.3832423088351602</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2545122755748125</v>
+        <v>0.2915353659674236</v>
       </c>
       <c r="L42" t="n">
         <v>0.08454129580083383</v>
@@ -2188,28 +2188,28 @@
         <v>5.846852994181003</v>
       </c>
       <c r="D43" t="n">
-        <v>14.10963518280806</v>
+        <v>18.67850345222741</v>
       </c>
       <c r="E43" t="n">
-        <v>19.04831444944221</v>
+        <v>21.02840458826804</v>
       </c>
       <c r="F43" t="n">
-        <v>19.45795422496672</v>
+        <v>21.87556375437207</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8095909678632706</v>
+        <v>0.6930206398760098</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6635297034095025</v>
+        <v>0.6254047342462998</v>
       </c>
       <c r="I43" t="n">
-        <v>0.6510891561987053</v>
+        <v>0.6092106375888351</v>
       </c>
       <c r="J43" t="n">
-        <v>0.2421555525316716</v>
+        <v>0.2673637137062767</v>
       </c>
       <c r="K43" t="n">
-        <v>0.220420563431274</v>
+        <v>0.2439777863917772</v>
       </c>
       <c r="L43" t="n">
         <v>0.02136724874244754</v>
@@ -2229,28 +2229,28 @@
         <v>5.759586531581287</v>
       </c>
       <c r="D44" t="n">
-        <v>12.74871374840084</v>
+        <v>24.63865545634463</v>
       </c>
       <c r="E44" t="n">
-        <v>11.08794631103961</v>
+        <v>15.69464813501913</v>
       </c>
       <c r="F44" t="n">
-        <v>11.53160257839466</v>
+        <v>16.47460014922205</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8550812706867237</v>
+        <v>0.566097029829846</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8900243239589184</v>
+        <v>0.7973552183792391</v>
       </c>
       <c r="I44" t="n">
-        <v>0.8708474697908548</v>
+        <v>0.7619497691680238</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1641293333406956</v>
+        <v>0.1683521914547495</v>
       </c>
       <c r="K44" t="n">
-        <v>0.1602852040179197</v>
+        <v>0.1662623755510181</v>
       </c>
       <c r="L44" t="n">
         <v>0.04045088811455529</v>
@@ -2270,28 +2270,28 @@
         <v>5.672320068981571</v>
       </c>
       <c r="D45" t="n">
-        <v>12.52026205819923</v>
+        <v>21.13713540323747</v>
       </c>
       <c r="E45" t="n">
-        <v>9.96268711095019</v>
+        <v>16.62578994756997</v>
       </c>
       <c r="F45" t="n">
-        <v>8.311587581661495</v>
+        <v>14.33840209649626</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8551852845828791</v>
+        <v>0.6803965644028314</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9097870261451204</v>
+        <v>0.7749690107336807</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9367759060213752</v>
+        <v>0.8264138682440442</v>
       </c>
       <c r="J45" t="n">
-        <v>0.135755474368382</v>
+        <v>0.1459205426628971</v>
       </c>
       <c r="K45" t="n">
-        <v>0.1485455124163934</v>
+        <v>0.1628655026063571</v>
       </c>
       <c r="L45" t="n">
         <v>0.004030628291240911</v>
@@ -2311,28 +2311,28 @@
         <v>5.585053606381854</v>
       </c>
       <c r="D46" t="n">
-        <v>21.69426030809103</v>
+        <v>30.83672091528767</v>
       </c>
       <c r="E46" t="n">
-        <v>18.23651780464576</v>
+        <v>28.31784157947002</v>
       </c>
       <c r="F46" t="n">
-        <v>15.22416180835151</v>
+        <v>23.12087754460662</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6053033618057018</v>
+        <v>0.3900545534154561</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6949244195341644</v>
+        <v>0.4302932725970649</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7780556122250227</v>
+        <v>0.5877797553220023</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1536847095626976</v>
+        <v>0.1834602673498015</v>
       </c>
       <c r="K46" t="n">
-        <v>0.165628776398436</v>
+        <v>0.2007821219184286</v>
       </c>
       <c r="L46" t="n">
         <v>0.02408772250946188</v>
@@ -2352,28 +2352,28 @@
         <v>5.497787143782138</v>
       </c>
       <c r="D47" t="n">
-        <v>20.00885173715288</v>
+        <v>28.9683262931746</v>
       </c>
       <c r="E47" t="n">
-        <v>14.34499051542779</v>
+        <v>22.84464142432211</v>
       </c>
       <c r="F47" t="n">
-        <v>10.3045312489468</v>
+        <v>16.40789543200111</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6456004119699427</v>
+        <v>0.4240050792277526</v>
       </c>
       <c r="H47" t="n">
-        <v>0.7953414233438476</v>
+        <v>0.5887732837303598</v>
       </c>
       <c r="I47" t="n">
-        <v>0.8956230757494359</v>
+        <v>0.7750408452058817</v>
       </c>
       <c r="J47" t="n">
-        <v>0.1347812815509601</v>
+        <v>0.1554415828882808</v>
       </c>
       <c r="K47" t="n">
-        <v>0.1491597251197684</v>
+        <v>0.1767071110841683</v>
       </c>
       <c r="L47" t="n">
         <v>0.002758887892097164</v>
@@ -2393,28 +2393,28 @@
         <v>5.410520681182422</v>
       </c>
       <c r="D48" t="n">
-        <v>10.47296680914415</v>
+        <v>14.51647832102126</v>
       </c>
       <c r="E48" t="n">
-        <v>10.69943426271004</v>
+        <v>14.40818904433081</v>
       </c>
       <c r="F48" t="n">
-        <v>11.99338603908241</v>
+        <v>15.89346399905291</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8984112471386556</v>
+        <v>0.8251118017929751</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9025603480614922</v>
+        <v>0.82933805229208</v>
       </c>
       <c r="I48" t="n">
-        <v>0.8559131757259351</v>
+        <v>0.7720317352134797</v>
       </c>
       <c r="J48" t="n">
-        <v>0.2046872039254606</v>
+        <v>0.2207474041763105</v>
       </c>
       <c r="K48" t="n">
-        <v>0.1994444534287926</v>
+        <v>0.2123720759287531</v>
       </c>
       <c r="L48" t="n">
         <v>0.03585002514430611</v>
@@ -2434,28 +2434,28 @@
         <v>5.323254218582705</v>
       </c>
       <c r="D49" t="n">
-        <v>11.68295925551303</v>
+        <v>14.80758521636485</v>
       </c>
       <c r="E49" t="n">
-        <v>14.33959613104214</v>
+        <v>19.73034509252981</v>
       </c>
       <c r="F49" t="n">
-        <v>17.81397478880283</v>
+        <v>24.15728975713208</v>
       </c>
       <c r="G49" t="n">
-        <v>0.8777833937769283</v>
+        <v>0.8154593718448711</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8349773808072714</v>
+        <v>0.696564660473202</v>
       </c>
       <c r="I49" t="n">
-        <v>0.7531713999264241</v>
+        <v>0.5825217408890249</v>
       </c>
       <c r="J49" t="n">
-        <v>0.3056297093587134</v>
+        <v>0.3657249295593614</v>
       </c>
       <c r="K49" t="n">
-        <v>0.2431871863854966</v>
+        <v>0.291486483006378</v>
       </c>
       <c r="L49" t="n">
         <v>0.08441580539315767</v>
@@ -2475,28 +2475,28 @@
         <v>5.235987755982989</v>
       </c>
       <c r="D50" t="n">
-        <v>18.92710686923912</v>
+        <v>25.85105548256036</v>
       </c>
       <c r="E50" t="n">
-        <v>20.28016843630452</v>
+        <v>31.63410656287355</v>
       </c>
       <c r="F50" t="n">
-        <v>24.22635842058282</v>
+        <v>37.10165064033338</v>
       </c>
       <c r="G50" t="n">
-        <v>0.7056583953786697</v>
+        <v>0.512993350018528</v>
       </c>
       <c r="H50" t="n">
-        <v>0.675151846866314</v>
+        <v>0.376169789449008</v>
       </c>
       <c r="I50" t="n">
-        <v>0.5585715041368987</v>
+        <v>0.2738673457150321</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2500046241022625</v>
+        <v>0.3085428636364267</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2153034997473716</v>
+        <v>0.2651332363712534</v>
       </c>
       <c r="L50" t="n">
         <v>0.03555254432833097</v>
@@ -2516,28 +2516,28 @@
         <v>5.148721293383272</v>
       </c>
       <c r="D51" t="n">
-        <v>23.67502176420741</v>
+        <v>26.28451866138625</v>
       </c>
       <c r="E51" t="n">
-        <v>25.33894919477889</v>
+        <v>30.75680441728793</v>
       </c>
       <c r="F51" t="n">
-        <v>28.1620440699952</v>
+        <v>33.7879102478268</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5723814964946233</v>
+        <v>0.4954094788171363</v>
       </c>
       <c r="H51" t="n">
-        <v>0.5053774699732373</v>
+        <v>0.357448035742169</v>
       </c>
       <c r="I51" t="n">
-        <v>0.4177302983750612</v>
+        <v>0.2696946255340814</v>
       </c>
       <c r="J51" t="n">
-        <v>0.2028836460177761</v>
+        <v>0.2364202094589611</v>
       </c>
       <c r="K51" t="n">
-        <v>0.1862532095877912</v>
+        <v>0.2166553762281944</v>
       </c>
       <c r="L51" t="n">
         <v>0.02072028704173518</v>
@@ -2557,28 +2557,28 @@
         <v>5.061454830783555</v>
       </c>
       <c r="D52" t="n">
-        <v>27.52516227341155</v>
+        <v>31.79412559617657</v>
       </c>
       <c r="E52" t="n">
-        <v>23.3722241702007</v>
+        <v>28.03862972952487</v>
       </c>
       <c r="F52" t="n">
-        <v>25.38842029918776</v>
+        <v>29.81385542911667</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4967172498233898</v>
+        <v>0.3839207089497959</v>
       </c>
       <c r="H52" t="n">
-        <v>0.5890494428212637</v>
+        <v>0.4519095475794605</v>
       </c>
       <c r="I52" t="n">
-        <v>0.5086578113608676</v>
+        <v>0.3921706718308349</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1534212608481632</v>
+        <v>0.1854229460767342</v>
       </c>
       <c r="K52" t="n">
-        <v>0.1457345102409245</v>
+        <v>0.1731649213671856</v>
       </c>
       <c r="L52" t="n">
         <v>-0.0002356844281858267</v>
@@ -2598,28 +2598,28 @@
         <v>4.974188368183839</v>
       </c>
       <c r="D53" t="n">
-        <v>32.94494333130477</v>
+        <v>36.62662546324573</v>
       </c>
       <c r="E53" t="n">
-        <v>25.58836881881281</v>
+        <v>35.26081972298752</v>
       </c>
       <c r="F53" t="n">
-        <v>22.6686778988842</v>
+        <v>30.50434798913683</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3721337037764795</v>
+        <v>0.2592446980036799</v>
       </c>
       <c r="H53" t="n">
-        <v>0.554451287293529</v>
+        <v>0.2630445981314611</v>
       </c>
       <c r="I53" t="n">
-        <v>0.6051811278457856</v>
+        <v>0.3901631358063311</v>
       </c>
       <c r="J53" t="n">
-        <v>0.1124188525998653</v>
+        <v>0.1601478203432736</v>
       </c>
       <c r="K53" t="n">
-        <v>0.1389744240058167</v>
+        <v>0.198412733960894</v>
       </c>
       <c r="L53" t="n">
         <v>0.00809726462901744</v>
@@ -2639,28 +2639,28 @@
         <v>4.886921905584122</v>
       </c>
       <c r="D54" t="n">
-        <v>26.65153673606707</v>
+        <v>29.01096230823488</v>
       </c>
       <c r="E54" t="n">
-        <v>22.04927746731312</v>
+        <v>29.42905087990977</v>
       </c>
       <c r="F54" t="n">
-        <v>20.5933736409355</v>
+        <v>26.61471609814545</v>
       </c>
       <c r="G54" t="n">
-        <v>0.5224456233668239</v>
+        <v>0.4481820336162621</v>
       </c>
       <c r="H54" t="n">
-        <v>0.628887688885278</v>
+        <v>0.4140564557773038</v>
       </c>
       <c r="I54" t="n">
-        <v>0.6399790286602827</v>
+        <v>0.4912836885430413</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1140941754507507</v>
+        <v>0.1589565179386632</v>
       </c>
       <c r="K54" t="n">
-        <v>0.1330106584310288</v>
+        <v>0.1869673328692476</v>
       </c>
       <c r="L54" t="n">
         <v>0.03121964759974528</v>
@@ -2680,28 +2680,28 @@
         <v>4.799655442984406</v>
       </c>
       <c r="D55" t="n">
-        <v>24.45244345824373</v>
+        <v>29.657207644412</v>
       </c>
       <c r="E55" t="n">
-        <v>20.04028809791639</v>
+        <v>22.11712909788688</v>
       </c>
       <c r="F55" t="n">
-        <v>18.10566759516446</v>
+        <v>21.18921310582657</v>
       </c>
       <c r="G55" t="n">
-        <v>0.5666872760926265</v>
+        <v>0.4411299687988535</v>
       </c>
       <c r="H55" t="n">
-        <v>0.6514595874560685</v>
+        <v>0.6159226829605269</v>
       </c>
       <c r="I55" t="n">
-        <v>0.6903512226594423</v>
+        <v>0.6514020279802559</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1058741477128859</v>
+        <v>0.1233421689565858</v>
       </c>
       <c r="K55" t="n">
-        <v>0.1203717963411525</v>
+        <v>0.1334779916616978</v>
       </c>
       <c r="L55" t="n">
         <v>0.00132028311660592</v>
@@ -2721,28 +2721,28 @@
         <v>4.71238898038469</v>
       </c>
       <c r="D56" t="n">
-        <v>33.90236550692227</v>
+        <v>37.0574822486621</v>
       </c>
       <c r="E56" t="n">
-        <v>39.00870495466608</v>
+        <v>40.96203143616256</v>
       </c>
       <c r="F56" t="n">
-        <v>33.25087807201199</v>
+        <v>35.65457820618055</v>
       </c>
       <c r="G56" t="n">
-        <v>0.3407682786829411</v>
+        <v>0.2379879832914384</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2285636646854969</v>
+        <v>0.17755464860776</v>
       </c>
       <c r="I56" t="n">
-        <v>0.3315420439254116</v>
+        <v>0.2692489991473184</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1476710218312399</v>
+        <v>0.1759935232609811</v>
       </c>
       <c r="K56" t="n">
-        <v>0.1688948175143796</v>
+        <v>0.1969817671799638</v>
       </c>
       <c r="L56" t="n">
         <v>0.007414804420901591</v>
@@ -2762,28 +2762,28 @@
         <v>4.625122517784973</v>
       </c>
       <c r="D57" t="n">
-        <v>37.13431792838921</v>
+        <v>37.77919368308794</v>
       </c>
       <c r="E57" t="n">
-        <v>41.21079225356062</v>
+        <v>38.17603255295556</v>
       </c>
       <c r="F57" t="n">
-        <v>42.99440299112852</v>
+        <v>40.02666653076326</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2195915733097216</v>
+        <v>0.210198979637269</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1832668222101329</v>
+        <v>0.2445212278851446</v>
       </c>
       <c r="I57" t="n">
-        <v>0.3135668112418491</v>
+        <v>0.3358183167494821</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1750531290779001</v>
+        <v>0.2006468060425726</v>
       </c>
       <c r="K57" t="n">
-        <v>0.1691286818038534</v>
+        <v>0.192168002594066</v>
       </c>
       <c r="L57" t="n">
         <v>-0.02153324863472868</v>
@@ -2803,28 +2803,28 @@
         <v>4.537856055185257</v>
       </c>
       <c r="D58" t="n">
-        <v>45.20541528501164</v>
+        <v>44.50498793565229</v>
       </c>
       <c r="E58" t="n">
-        <v>35.35678752120452</v>
+        <v>33.96414697299363</v>
       </c>
       <c r="F58" t="n">
-        <v>36.37798256981411</v>
+        <v>34.72903311926084</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02899733696507924</v>
+        <v>0.008022195857606036</v>
       </c>
       <c r="H58" t="n">
-        <v>0.2475223257923935</v>
+        <v>0.3049084006173929</v>
       </c>
       <c r="I58" t="n">
-        <v>0.2707976189284075</v>
+        <v>0.3107381996961849</v>
       </c>
       <c r="J58" t="n">
-        <v>0.1305929915922661</v>
+        <v>0.156547781147796</v>
       </c>
       <c r="K58" t="n">
-        <v>0.1326728207688014</v>
+        <v>0.1599867508578288</v>
       </c>
       <c r="L58" t="n">
         <v>0.02099008670807468</v>
@@ -2844,28 +2844,28 @@
         <v>4.450589592585541</v>
       </c>
       <c r="D59" t="n">
-        <v>45.61946540266674</v>
+        <v>46.92047223821874</v>
       </c>
       <c r="E59" t="n">
-        <v>31.83622144937997</v>
+        <v>34.49010565057808</v>
       </c>
       <c r="F59" t="n">
-        <v>31.38950226632462</v>
+        <v>34.35606618492526</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.01713844744812732</v>
+        <v>-0.06742678984782786</v>
       </c>
       <c r="H59" t="n">
-        <v>0.3438315445665963</v>
+        <v>0.2611974052019879</v>
       </c>
       <c r="I59" t="n">
-        <v>0.4321531534415414</v>
+        <v>0.3912202484928493</v>
       </c>
       <c r="J59" t="n">
-        <v>0.09806404966528089</v>
+        <v>0.1270678127317522</v>
       </c>
       <c r="K59" t="n">
-        <v>0.1138688426501283</v>
+        <v>0.1464744712788395</v>
       </c>
       <c r="L59" t="n">
         <v>-0.03020850983128981</v>
@@ -2885,28 +2885,28 @@
         <v>4.363323129985824</v>
       </c>
       <c r="D60" t="n">
-        <v>42.96434821547224</v>
+        <v>39.52358175038278</v>
       </c>
       <c r="E60" t="n">
-        <v>40.19522879230478</v>
+        <v>40.20973418933513</v>
       </c>
       <c r="F60" t="n">
-        <v>40.36752444617942</v>
+        <v>41.39539539345057</v>
       </c>
       <c r="G60" t="n">
-        <v>0.08003467975371235</v>
+        <v>0.1531125121849118</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1413627045910264</v>
+        <v>0.2083961709811326</v>
       </c>
       <c r="I60" t="n">
-        <v>0.2961849159207607</v>
+        <v>0.3654069839954914</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1391809401018704</v>
+        <v>0.1815705188284429</v>
       </c>
       <c r="K60" t="n">
-        <v>0.1530759811465793</v>
+        <v>0.1954615857960607</v>
       </c>
       <c r="L60" t="n">
         <v>0.01027633812925548</v>
@@ -2926,28 +2926,28 @@
         <v>4.276056667386108</v>
       </c>
       <c r="D61" t="n">
-        <v>52.08785304032055</v>
+        <v>46.77003039455423</v>
       </c>
       <c r="E61" t="n">
-        <v>50.49581111677411</v>
+        <v>43.89346558494623</v>
       </c>
       <c r="F61" t="n">
-        <v>50.70104254241284</v>
+        <v>45.90533987731774</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1867482422078889</v>
+        <v>-0.07163708099965936</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.08492396353929098</v>
+        <v>0.1092350074918792</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1827621454481929</v>
+        <v>0.3314926578741372</v>
       </c>
       <c r="J61" t="n">
-        <v>0.1436099437422571</v>
+        <v>0.1661755402850749</v>
       </c>
       <c r="K61" t="n">
-        <v>0.1515016773052816</v>
+        <v>0.1726601917712555</v>
       </c>
       <c r="L61" t="n">
         <v>0.01756679718121018</v>
@@ -2967,28 +2967,28 @@
         <v>4.188790204786391</v>
       </c>
       <c r="D62" t="n">
-        <v>69.55605739282338</v>
+        <v>63.26314183347363</v>
       </c>
       <c r="E62" t="n">
-        <v>76.32762931822901</v>
+        <v>68.22443549625443</v>
       </c>
       <c r="F62" t="n">
-        <v>74.40672337874483</v>
+        <v>68.59168066612521</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.6574431074249664</v>
+        <v>-0.5084470931157908</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.5335573727133456</v>
+        <v>-0.3307464311421632</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.137838896481088</v>
+        <v>-0.008028753880100829</v>
       </c>
       <c r="J62" t="n">
-        <v>0.1755759470955415</v>
+        <v>0.1969708684138123</v>
       </c>
       <c r="K62" t="n">
-        <v>0.1810437153203195</v>
+        <v>0.2002402043364953</v>
       </c>
       <c r="L62" t="n">
         <v>-0.01668362243863398</v>
@@ -3008,28 +3008,28 @@
         <v>4.101523742186675</v>
       </c>
       <c r="D63" t="n">
-        <v>73.26787716054325</v>
+        <v>67.64901554446301</v>
       </c>
       <c r="E63" t="n">
-        <v>82.24944614721355</v>
+        <v>73.76833915436843</v>
       </c>
       <c r="F63" t="n">
-        <v>80.8106495296071</v>
+        <v>74.12494695816312</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.7549619991718119</v>
+        <v>-0.6243946695484774</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.7847438660431793</v>
+        <v>-0.6015611020618772</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.4061532455651373</v>
+        <v>-0.3064970619992519</v>
       </c>
       <c r="J63" t="n">
-        <v>0.1852378928429108</v>
+        <v>0.2094226307931522</v>
       </c>
       <c r="K63" t="n">
-        <v>0.1859082776304919</v>
+        <v>0.2084419801226434</v>
       </c>
       <c r="L63" t="n">
         <v>-0.03212559348308808</v>
@@ -3049,28 +3049,28 @@
         <v>4.014257279586958</v>
       </c>
       <c r="D64" t="n">
-        <v>73.04044802763572</v>
+        <v>66.45557095102774</v>
       </c>
       <c r="E64" t="n">
-        <v>68.19241819965853</v>
+        <v>63.44380407165353</v>
       </c>
       <c r="F64" t="n">
-        <v>76.70553858203246</v>
+        <v>71.89254480243622</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.7744673380823186</v>
+        <v>-0.5857019290583099</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.3944641207921771</v>
+        <v>-0.2346902244574954</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.1337340901567822</v>
+        <v>-0.0180110000668526</v>
       </c>
       <c r="J64" t="n">
-        <v>0.1740164142222923</v>
+        <v>0.2002249190186535</v>
       </c>
       <c r="K64" t="n">
-        <v>0.1523958855002332</v>
+        <v>0.1767008593536313</v>
       </c>
       <c r="L64" t="n">
         <v>-0.02312084003059828</v>
@@ -3090,28 +3090,28 @@
         <v>3.926990816987241</v>
       </c>
       <c r="D65" t="n">
-        <v>72.65873508087829</v>
+        <v>63.08192436928352</v>
       </c>
       <c r="E65" t="n">
-        <v>63.03984920097925</v>
+        <v>52.83527530842028</v>
       </c>
       <c r="F65" t="n">
-        <v>65.74576450388516</v>
+        <v>55.57999692339119</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.7666008688068956</v>
+        <v>-0.4981386581672669</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.2919624295597589</v>
+        <v>-0.1070944928319092</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.2672790427072247</v>
+        <v>-0.04091848701577725</v>
       </c>
       <c r="J65" t="n">
-        <v>0.1501519094912167</v>
+        <v>0.167859086945308</v>
       </c>
       <c r="K65" t="n">
-        <v>0.1400312656480816</v>
+        <v>0.1540078768225827</v>
       </c>
       <c r="L65" t="n">
         <v>-0.003122294001357032</v>
@@ -3131,28 +3131,28 @@
         <v>3.839724354387525</v>
       </c>
       <c r="D66" t="n">
-        <v>77.82665182254593</v>
+        <v>74.5809286881501</v>
       </c>
       <c r="E66" t="n">
-        <v>80.01906344080481</v>
+        <v>75.30013818009947</v>
       </c>
       <c r="F66" t="n">
-        <v>76.87910295928377</v>
+        <v>75.70703884108981</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.8701240108931716</v>
+        <v>-0.7696513318371714</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.3733579428264667</v>
+        <v>-0.2514345052813212</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.3153204198928091</v>
+        <v>-0.09198907300473656</v>
       </c>
       <c r="J66" t="n">
-        <v>0.1606523782997458</v>
+        <v>0.1898115589898406</v>
       </c>
       <c r="K66" t="n">
-        <v>0.1672537831490015</v>
+        <v>0.1907185721369906</v>
       </c>
       <c r="L66" t="n">
         <v>-0.0311486070948283</v>
@@ -3172,28 +3172,28 @@
         <v>3.752457891787809</v>
       </c>
       <c r="D67" t="n">
-        <v>79.77782849071217</v>
+        <v>76.12626048501215</v>
       </c>
       <c r="E67" t="n">
-        <v>99.63835972576459</v>
+        <v>84.57459967592423</v>
       </c>
       <c r="F67" t="n">
-        <v>83.30970101353407</v>
+        <v>73.31692856883063</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.8960857007660442</v>
+        <v>-0.8103048872483305</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.4712675314974933</v>
+        <v>-0.2549279592001713</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.2878676195534335</v>
+        <v>-0.009585946808400182</v>
       </c>
       <c r="J67" t="n">
-        <v>0.16994248990535</v>
+        <v>0.1810003682590805</v>
       </c>
       <c r="K67" t="n">
-        <v>0.2050837241670069</v>
+        <v>0.2125005958724775</v>
       </c>
       <c r="L67" t="n">
         <v>-0.03682396090622784</v>
@@ -3213,28 +3213,28 @@
         <v>3.665191429188092</v>
       </c>
       <c r="D68" t="n">
-        <v>73.51653891758775</v>
+        <v>69.29548141375085</v>
       </c>
       <c r="E68" t="n">
-        <v>87.81844879350783</v>
+        <v>80.12032469792504</v>
       </c>
       <c r="F68" t="n">
-        <v>73.31534588710073</v>
+        <v>68.63167307510342</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.7867595174444405</v>
+        <v>-0.6593010160115165</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.3626887292879187</v>
+        <v>-0.1796804883633895</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.173451236184052</v>
+        <v>-0.02136339454056162</v>
       </c>
       <c r="J68" t="n">
-        <v>0.1607984966788089</v>
+        <v>0.1815156300565064</v>
       </c>
       <c r="K68" t="n">
-        <v>0.1934220092299</v>
+        <v>0.214026738020069</v>
       </c>
       <c r="L68" t="n">
         <v>-0.03946030366329265</v>
@@ -3254,28 +3254,28 @@
         <v>3.577924966588375</v>
       </c>
       <c r="D69" t="n">
-        <v>68.17005643232659</v>
+        <v>58.94818483917233</v>
       </c>
       <c r="E69" t="n">
-        <v>74.01993749072115</v>
+        <v>64.39419730002886</v>
       </c>
       <c r="F69" t="n">
-        <v>73.79014745083174</v>
+        <v>65.60820483958078</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6520705573060465</v>
+        <v>-0.3896239953975618</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.5188302519294928</v>
+        <v>-0.3284295232263647</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.4605927941670752</v>
+        <v>-0.2087847701467859</v>
       </c>
       <c r="J69" t="n">
-        <v>0.1785936634046536</v>
+        <v>0.212580770975446</v>
       </c>
       <c r="K69" t="n">
-        <v>0.1770027332618909</v>
+        <v>0.2061287063204216</v>
       </c>
       <c r="L69" t="n">
         <v>0.008386708255683759</v>
@@ -3295,28 +3295,28 @@
         <v>3.490658503988659</v>
       </c>
       <c r="D70" t="n">
-        <v>72.4023212371537</v>
+        <v>65.58619746951153</v>
       </c>
       <c r="E70" t="n">
-        <v>74.5757710430459</v>
+        <v>73.19398901103851</v>
       </c>
       <c r="F70" t="n">
-        <v>70.58703762107557</v>
+        <v>69.86632319800766</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7740449171279404</v>
+        <v>-0.5933888744467818</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.6785909294025114</v>
+        <v>-0.5818863686825325</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.4461467653510892</v>
+        <v>-0.2990151940786558</v>
       </c>
       <c r="J70" t="n">
-        <v>0.1615910136637615</v>
+        <v>0.20341346650683</v>
       </c>
       <c r="K70" t="n">
-        <v>0.1724493014384176</v>
+        <v>0.2162273582158792</v>
       </c>
       <c r="L70" t="n">
         <v>-0.04956786017470422</v>
@@ -3336,28 +3336,28 @@
         <v>3.403392041388943</v>
       </c>
       <c r="D71" t="n">
-        <v>69.58946731508581</v>
+        <v>64.87780383115147</v>
       </c>
       <c r="E71" t="n">
-        <v>81.06221360253642</v>
+        <v>76.61573998636227</v>
       </c>
       <c r="F71" t="n">
-        <v>74.05047623768448</v>
+        <v>70.87489759153604</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6820404116923249</v>
+        <v>-0.5489706213804239</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.8348767733752017</v>
+        <v>-0.6591549213437572</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.51898166435311</v>
+        <v>-0.3990179370916985</v>
       </c>
       <c r="J71" t="n">
-        <v>0.1769239268425367</v>
+        <v>0.2158564789075439</v>
       </c>
       <c r="K71" t="n">
-        <v>0.1947037697361094</v>
+        <v>0.2352258775331477</v>
       </c>
       <c r="L71" t="n">
         <v>-0.03407332101807975</v>
@@ -3377,28 +3377,28 @@
         <v>3.316125578789226</v>
       </c>
       <c r="D72" t="n">
-        <v>68.90025338193635</v>
+        <v>63.76018334513789</v>
       </c>
       <c r="E72" t="n">
-        <v>75.17738519808442</v>
+        <v>65.62711874044736</v>
       </c>
       <c r="F72" t="n">
-        <v>73.63552929099433</v>
+        <v>64.06073517250522</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6564482848809153</v>
+        <v>-0.5073500009279958</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.653471927803039</v>
+        <v>-0.3781073546055826</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.3924875723472802</v>
+        <v>-0.2141216488197802</v>
       </c>
       <c r="J72" t="n">
-        <v>0.175521970974062</v>
+        <v>0.1919215074851681</v>
       </c>
       <c r="K72" t="n">
-        <v>0.1805366143102234</v>
+        <v>0.1974662739826125</v>
       </c>
       <c r="L72" t="n">
         <v>-0.01072378479782556</v>
@@ -3418,28 +3418,28 @@
         <v>3.22885911618951</v>
       </c>
       <c r="D73" t="n">
-        <v>62.08901740360589</v>
+        <v>59.66151833852715</v>
       </c>
       <c r="E73" t="n">
-        <v>68.09489928589041</v>
+        <v>62.59857033976064</v>
       </c>
       <c r="F73" t="n">
-        <v>74.67576380927675</v>
+        <v>69.05172013317816</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4918388437898429</v>
+        <v>-0.4063407602918213</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.3792479974009875</v>
+        <v>-0.2356361822967765</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.0546917829272698</v>
+        <v>0.03600711269064694</v>
       </c>
       <c r="J73" t="n">
-        <v>0.1944845204595695</v>
+        <v>0.2174729315791961</v>
       </c>
       <c r="K73" t="n">
-        <v>0.1800442448167636</v>
+        <v>0.1992502415843809</v>
       </c>
       <c r="L73" t="n">
         <v>-0.02362468629550048</v>
